--- a/curves.xlsx
+++ b/curves.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elyès Chenik\Documents\Dauphine\M2\Fixed Income\FI_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elyès Chenik\Documents\Dauphine\M2\Fixed Income\FI_project_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11CE14-FCFD-4483-BEE0-3AB6401A7D71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A945CC-7297-4BA2-AE2E-F00B81B6078E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="curve_1" sheetId="1" r:id="rId1"/>
-    <sheet name="curve_2" sheetId="2" r:id="rId2"/>
+    <sheet name="USD3M - Curve for forwards" sheetId="3" r:id="rId2"/>
+    <sheet name="OIS Curve for discounting" sheetId="5" r:id="rId3"/>
+    <sheet name="curve_2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,20 +37,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Rate</t>
   </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Comp Factor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -76,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,9 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -512,11 +530,346 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C90CAC6-43EA-46CC-B500-9A58001357AC}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B2">
+        <v>0.99710100000000002</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B3">
+        <v>0.99436800000000003</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B4">
+        <v>0.99080299999999999</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B5">
+        <v>0.98701799999999995</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B6">
+        <v>0.98305500000000001</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B7">
+        <v>0.97886700000000004</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B8">
+        <v>0.97447099999999998</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B9">
+        <v>0.96913499999999997</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B10">
+        <v>0.94948900000000003</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B11">
+        <v>0.92832300000000001</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>46119</v>
+      </c>
+      <c r="B12">
+        <v>0.906277</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>46484</v>
+      </c>
+      <c r="B13">
+        <v>0.88341599999999998</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>46850</v>
+      </c>
+      <c r="B14">
+        <v>0.86065800000000003</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>47215</v>
+      </c>
+      <c r="B15">
+        <v>0.83777900000000005</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>47580</v>
+      </c>
+      <c r="B16">
+        <v>0.81493800000000005</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>47945</v>
+      </c>
+      <c r="B17">
+        <v>0.79228799999999999</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E280B244-20C1-4A13-8383-F06BA8D30257}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B2">
+        <v>0.99992400000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B3">
+        <v>0.99982300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B4">
+        <v>0.99964600000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B5">
+        <v>0.99947799999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B6">
+        <v>0.99922599999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B7">
+        <v>0.99847200000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B8">
+        <v>0.99763199999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B9">
+        <v>0.99672300000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B10">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B11">
+        <v>0.99476799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B12">
+        <v>0.99175000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B13">
+        <v>0.98852700000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B14">
+        <v>0.98154600000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B15">
+        <v>0.97385900000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B16">
+        <v>0.95683499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B17">
+        <v>0.93862500000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>46119</v>
+      </c>
+      <c r="B18">
+        <v>0.91930900000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>47945</v>
+      </c>
+      <c r="B19">
+        <v>0.81904999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4B075B-8D2A-4074-B6D6-2501782016A1}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
